--- a/src/test/java/sharecaar_testdata/SharecaarLogin.xlsx
+++ b/src/test/java/sharecaar_testdata/SharecaarLogin.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\ExcelSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\eclipse-workspace-Selenium\Hybrid_ShareCaarProject\src\test\java\sharecaar_testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B72FC95-2F5B-4923-A690-F652F8EF6A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD0CA43-FC9E-4B45-8EF8-4A622EA16EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6FB68BAE-97C0-43A0-85B3-8B35A11D5383}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Email</t>
   </si>
@@ -49,12 +49,22 @@
   </si>
   <si>
     <t>demo@24</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -79,7 +89,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,8 +102,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -195,26 +225,39 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -222,16 +265,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -547,48 +594,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D83DAC3-99DD-4691-BC31-8A9363C75627}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="32.1796875"/>
+    <col min="2" max="2" customWidth="true" width="16.36328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s" s="10">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s" s="11">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
+      </c>
+      <c r="C4" t="s" s="12">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
